--- a/spreadsheet/sliding windows with time series.xlsx
+++ b/spreadsheet/sliding windows with time series.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aSSIST\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASSIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9923"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -554,13 +554,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +753,51 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,56 +807,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,11 +2011,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B39" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -1900,17 +2029,17 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -1928,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +2071,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="4">
         <v>44088</v>
       </c>
@@ -1953,7 +2082,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="4">
         <v>44089</v>
       </c>
@@ -1964,7 +2093,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="4">
         <v>44090</v>
       </c>
@@ -1975,7 +2104,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="4">
         <v>44091</v>
       </c>
@@ -1986,7 +2115,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B9" s="4">
         <v>44092</v>
       </c>
@@ -1998,7 +2127,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>44093</v>
@@ -2014,7 +2143,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +2161,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4">
         <v>44095</v>
       </c>
@@ -2050,7 +2179,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="4">
         <v>44096</v>
       </c>
@@ -2068,7 +2197,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B14" s="4">
         <v>44097</v>
       </c>
@@ -2085,7 +2214,7 @@
         <v>0.98111935266351991</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="4">
         <v>44098</v>
       </c>
@@ -2101,7 +2230,7 @@
         <v>0.97731958762886617</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B16" s="4">
         <v>44099</v>
       </c>
@@ -2117,7 +2246,7 @@
         <v>0.99507735583684942</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>44100</v>
@@ -2138,12 +2267,12 @@
         <v>0.99010600706713769</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="16"/>
       <c r="E21" s="15" t="s">
         <v>18</v>
@@ -2151,7 +2280,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2295,7 @@
       </c>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B23" s="23">
         <v>44087</v>
       </c>
@@ -2182,7 +2311,7 @@
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B24" s="23">
         <v>44088</v>
       </c>
@@ -2190,18 +2319,18 @@
         <v>21.3</v>
       </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="45">
+      <c r="E24" s="40">
         <f>F23</f>
         <v>21.5</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="32">
         <v>21.3</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B25" s="23">
         <v>44089</v>
       </c>
@@ -2209,16 +2338,16 @@
         <v>23</v>
       </c>
       <c r="D25" s="21"/>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <f t="shared" ref="E25:E36" si="2">F24</f>
         <v>21.3</v>
       </c>
       <c r="F25" s="26">
         <v>23</v>
       </c>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B26" s="23">
         <v>44090</v>
       </c>
@@ -2226,16 +2355,16 @@
         <v>22.5</v>
       </c>
       <c r="D26" s="21"/>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="F26" s="26">
         <v>22.5</v>
       </c>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B27" s="23">
         <v>44091</v>
       </c>
@@ -2243,16 +2372,16 @@
         <v>21.3</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="46">
+      <c r="E27" s="41">
         <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="F27" s="26">
         <v>21.3</v>
       </c>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="23">
         <v>44092</v>
       </c>
@@ -2260,16 +2389,16 @@
         <v>21.5</v>
       </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <f t="shared" si="2"/>
         <v>21.3</v>
       </c>
       <c r="F28" s="26">
         <v>21.5</v>
       </c>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B29" s="23">
         <v>44093</v>
       </c>
@@ -2277,16 +2406,16 @@
         <v>21.2</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="46">
+      <c r="E29" s="41">
         <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
       <c r="F29" s="26">
         <v>21.2</v>
       </c>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B30" s="23">
         <v>44094</v>
       </c>
@@ -2294,16 +2423,16 @@
         <v>19.7</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="46">
+      <c r="E30" s="41">
         <f t="shared" si="2"/>
         <v>21.2</v>
       </c>
       <c r="F30" s="26">
         <v>19.7</v>
       </c>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B31" s="23">
         <v>44095</v>
       </c>
@@ -2311,16 +2440,16 @@
         <v>19.100000000000001</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="46">
+      <c r="E31" s="41">
         <f t="shared" si="2"/>
         <v>19.7</v>
       </c>
       <c r="F31" s="26">
         <v>19.100000000000001</v>
       </c>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B32" s="23">
         <v>44096</v>
       </c>
@@ -2328,16 +2457,16 @@
         <v>20.2</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="46">
+      <c r="E32" s="41">
         <f t="shared" si="2"/>
         <v>19.100000000000001</v>
       </c>
       <c r="F32" s="26">
         <v>20.2</v>
       </c>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B33" s="23">
         <v>44097</v>
       </c>
@@ -2345,16 +2474,16 @@
         <v>19.2</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="46">
+      <c r="E33" s="41">
         <f t="shared" si="2"/>
         <v>20.2</v>
       </c>
       <c r="F33" s="26">
         <v>19.2</v>
       </c>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B34" s="23">
         <v>44098</v>
       </c>
@@ -2362,16 +2491,16 @@
         <v>20.6</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="46">
+      <c r="E34" s="41">
         <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
       <c r="F34" s="26">
         <v>20.6</v>
       </c>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B35" s="23">
         <v>44099</v>
       </c>
@@ -2379,16 +2508,16 @@
         <v>20.100000000000001</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="46">
+      <c r="E35" s="41">
         <f t="shared" si="2"/>
         <v>20.6</v>
       </c>
       <c r="F35" s="26">
         <v>20.100000000000001</v>
       </c>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B36" s="23">
         <v>44100</v>
       </c>
@@ -2396,16 +2525,16 @@
         <v>19.2</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="47">
+      <c r="E36" s="42">
         <f t="shared" si="2"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="38">
         <v>19.2</v>
       </c>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B37" s="4">
         <v>44831</v>
       </c>
@@ -2420,7 +2549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="F42" s="15" t="s">
         <v>23</v>
       </c>
@@ -2428,7 +2557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +2592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B44" s="23">
         <v>44087</v>
       </c>
@@ -2498,7 +2627,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B45" s="23">
         <v>44088</v>
       </c>
@@ -2508,40 +2637,40 @@
       <c r="D45" s="28">
         <v>89</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="49">
         <v>21.5</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="50">
         <v>88</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="51">
         <v>21.3</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="52">
         <f>D45</f>
         <v>89</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L45" s="34">
+      <c r="L45" s="31">
         <v>21.5</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="50">
         <v>88</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45" s="32">
         <v>21.3</v>
       </c>
-      <c r="O45" s="37" t="str">
+      <c r="O45" s="33" t="str">
         <f>J45</f>
         <v xml:space="preserve">Training </v>
       </c>
-      <c r="P45" s="31" t="s">
+      <c r="P45" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B46" s="23">
         <v>44089</v>
       </c>
@@ -2551,36 +2680,36 @@
       <c r="D46" s="28">
         <v>87</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="54">
         <v>21.3</v>
       </c>
-      <c r="G46" s="39">
-        <v>85</v>
+      <c r="G46" s="35">
+        <v>89</v>
       </c>
       <c r="H46" s="26">
         <v>23</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="36">
         <f t="shared" ref="I46:I57" si="3">D46</f>
         <v>87</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="L46" s="38">
+      <c r="J46" s="55"/>
+      <c r="L46" s="34">
         <v>21.3</v>
       </c>
-      <c r="M46" s="39">
-        <v>85</v>
+      <c r="M46" s="35">
+        <v>89</v>
       </c>
       <c r="N46" s="26">
         <v>23</v>
       </c>
-      <c r="O46" s="40">
-        <f t="shared" ref="O46:O58" si="4">J46</f>
+      <c r="O46" s="36">
+        <f t="shared" ref="O46:O57" si="4">J46</f>
         <v>0</v>
       </c>
-      <c r="P46" s="32"/>
-    </row>
-    <row r="47" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P46" s="47"/>
+    </row>
+    <row r="47" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B47" s="23">
         <v>44090</v>
       </c>
@@ -2590,36 +2719,36 @@
       <c r="D47" s="28">
         <v>88</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="54">
         <v>23</v>
       </c>
-      <c r="G47" s="39">
-        <v>65</v>
+      <c r="G47" s="35">
+        <v>87</v>
       </c>
       <c r="H47" s="26">
         <v>22.5</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="36">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="J47" s="32"/>
-      <c r="L47" s="38">
+      <c r="J47" s="55"/>
+      <c r="L47" s="34">
         <v>23</v>
       </c>
-      <c r="M47" s="39">
-        <v>65</v>
+      <c r="M47" s="35">
+        <v>87</v>
       </c>
       <c r="N47" s="26">
         <v>22.5</v>
       </c>
-      <c r="O47" s="40">
+      <c r="O47" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P47" s="32"/>
-    </row>
-    <row r="48" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P47" s="47"/>
+    </row>
+    <row r="48" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B48" s="23">
         <v>44091</v>
       </c>
@@ -2629,36 +2758,36 @@
       <c r="D48" s="28">
         <v>90</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="54">
         <v>22.5</v>
       </c>
-      <c r="G48" s="39">
-        <v>76</v>
+      <c r="G48" s="35">
+        <v>88</v>
       </c>
       <c r="H48" s="26">
         <v>21.3</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="36">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="J48" s="32"/>
-      <c r="L48" s="38">
+      <c r="J48" s="55"/>
+      <c r="L48" s="34">
         <v>22.5</v>
       </c>
-      <c r="M48" s="39">
-        <v>76</v>
+      <c r="M48" s="35">
+        <v>88</v>
       </c>
       <c r="N48" s="26">
         <v>21.3</v>
       </c>
-      <c r="O48" s="40">
+      <c r="O48" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P48" s="32"/>
-    </row>
-    <row r="49" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P48" s="47"/>
+    </row>
+    <row r="49" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B49" s="23">
         <v>44092</v>
       </c>
@@ -2668,36 +2797,36 @@
       <c r="D49" s="28">
         <v>87</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="54">
         <v>21.3</v>
       </c>
-      <c r="G49" s="39">
-        <v>89</v>
+      <c r="G49" s="35">
+        <v>90</v>
       </c>
       <c r="H49" s="26">
         <v>21.5</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="36">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="J49" s="32"/>
-      <c r="L49" s="38">
+      <c r="J49" s="55"/>
+      <c r="L49" s="34">
         <v>21.3</v>
       </c>
-      <c r="M49" s="39">
-        <v>89</v>
+      <c r="M49" s="35">
+        <v>90</v>
       </c>
       <c r="N49" s="26">
         <v>21.5</v>
       </c>
-      <c r="O49" s="40">
+      <c r="O49" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P49" s="32"/>
-    </row>
-    <row r="50" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P49" s="47"/>
+    </row>
+    <row r="50" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B50" s="23">
         <v>44093</v>
       </c>
@@ -2707,36 +2836,36 @@
       <c r="D50" s="28">
         <v>88</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="54">
         <v>21.5</v>
       </c>
-      <c r="G50" s="39">
-        <v>67</v>
+      <c r="G50" s="35">
+        <v>87</v>
       </c>
       <c r="H50" s="26">
         <v>21.2</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="36">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="J50" s="32"/>
-      <c r="L50" s="38">
+      <c r="J50" s="55"/>
+      <c r="L50" s="34">
         <v>21.5</v>
       </c>
-      <c r="M50" s="39">
-        <v>67</v>
+      <c r="M50" s="35">
+        <v>87</v>
       </c>
       <c r="N50" s="26">
         <v>21.2</v>
       </c>
-      <c r="O50" s="40">
+      <c r="O50" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P50" s="32"/>
-    </row>
-    <row r="51" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P50" s="47"/>
+    </row>
+    <row r="51" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B51" s="23">
         <v>44094</v>
       </c>
@@ -2746,36 +2875,36 @@
       <c r="D51" s="28">
         <v>90</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="54">
         <v>21.2</v>
       </c>
-      <c r="G51" s="39">
-        <v>86</v>
+      <c r="G51" s="35">
+        <v>88</v>
       </c>
       <c r="H51" s="26">
         <v>19.7</v>
       </c>
-      <c r="I51" s="40">
+      <c r="I51" s="36">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="J51" s="32"/>
-      <c r="L51" s="38">
+      <c r="J51" s="55"/>
+      <c r="L51" s="34">
         <v>21.2</v>
       </c>
-      <c r="M51" s="39">
-        <v>86</v>
+      <c r="M51" s="35">
+        <v>88</v>
       </c>
       <c r="N51" s="26">
         <v>19.7</v>
       </c>
-      <c r="O51" s="40">
+      <c r="O51" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P51" s="32"/>
-    </row>
-    <row r="52" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P51" s="47"/>
+    </row>
+    <row r="52" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B52" s="23">
         <v>44095</v>
       </c>
@@ -2785,36 +2914,36 @@
       <c r="D52" s="28">
         <v>85</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="54">
         <v>19.7</v>
       </c>
-      <c r="G52" s="39">
-        <v>57</v>
+      <c r="G52" s="35">
+        <v>90</v>
       </c>
       <c r="H52" s="26">
         <v>19.100000000000001</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="36">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="J52" s="32"/>
-      <c r="L52" s="38">
+      <c r="J52" s="55"/>
+      <c r="L52" s="34">
         <v>19.7</v>
       </c>
-      <c r="M52" s="39">
-        <v>57</v>
+      <c r="M52" s="35">
+        <v>90</v>
       </c>
       <c r="N52" s="26">
         <v>19.100000000000001</v>
       </c>
-      <c r="O52" s="40">
+      <c r="O52" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P52" s="32"/>
-    </row>
-    <row r="53" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P52" s="47"/>
+    </row>
+    <row r="53" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B53" s="23">
         <v>44096</v>
       </c>
@@ -2824,36 +2953,36 @@
       <c r="D53" s="28">
         <v>86</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="54">
         <v>19.100000000000001</v>
       </c>
-      <c r="G53" s="39">
-        <v>78</v>
+      <c r="G53" s="35">
+        <v>85</v>
       </c>
       <c r="H53" s="26">
         <v>20.2</v>
       </c>
-      <c r="I53" s="40">
+      <c r="I53" s="36">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="J53" s="32"/>
-      <c r="L53" s="38">
+      <c r="J53" s="55"/>
+      <c r="L53" s="34">
         <v>19.100000000000001</v>
       </c>
-      <c r="M53" s="39">
-        <v>78</v>
+      <c r="M53" s="35">
+        <v>85</v>
       </c>
       <c r="N53" s="26">
         <v>20.2</v>
       </c>
-      <c r="O53" s="40">
+      <c r="O53" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P53" s="32"/>
-    </row>
-    <row r="54" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="47"/>
+    </row>
+    <row r="54" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B54" s="23">
         <v>44097</v>
       </c>
@@ -2863,36 +2992,36 @@
       <c r="D54" s="28">
         <v>84</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="54">
         <v>20.2</v>
       </c>
-      <c r="G54" s="39">
-        <v>88</v>
+      <c r="G54" s="35">
+        <v>86</v>
       </c>
       <c r="H54" s="26">
         <v>19.2</v>
       </c>
-      <c r="I54" s="40">
+      <c r="I54" s="36">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="J54" s="32"/>
-      <c r="L54" s="38">
+      <c r="J54" s="55"/>
+      <c r="L54" s="34">
         <v>20.2</v>
       </c>
-      <c r="M54" s="39">
-        <v>88</v>
+      <c r="M54" s="35">
+        <v>86</v>
       </c>
       <c r="N54" s="26">
         <v>19.2</v>
       </c>
-      <c r="O54" s="40">
+      <c r="O54" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P54" s="32"/>
-    </row>
-    <row r="55" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P54" s="47"/>
+    </row>
+    <row r="55" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B55" s="23">
         <v>44098</v>
       </c>
@@ -2902,36 +3031,36 @@
       <c r="D55" s="28">
         <v>88</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="54">
         <v>19.2</v>
       </c>
-      <c r="G55" s="39">
-        <v>65</v>
+      <c r="G55" s="35">
+        <v>84</v>
       </c>
       <c r="H55" s="26">
         <v>20.6</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I55" s="36">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="J55" s="32"/>
-      <c r="L55" s="38">
+      <c r="J55" s="55"/>
+      <c r="L55" s="34">
         <v>19.2</v>
       </c>
-      <c r="M55" s="39">
-        <v>65</v>
+      <c r="M55" s="35">
+        <v>84</v>
       </c>
       <c r="N55" s="26">
         <v>20.6</v>
       </c>
-      <c r="O55" s="40">
+      <c r="O55" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P55" s="32"/>
-    </row>
-    <row r="56" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P55" s="47"/>
+    </row>
+    <row r="56" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B56" s="23">
         <v>44099</v>
       </c>
@@ -2941,36 +3070,36 @@
       <c r="D56" s="28">
         <v>89</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="54">
         <v>20.6</v>
       </c>
-      <c r="G56" s="39">
-        <v>78</v>
+      <c r="G56" s="35">
+        <v>88</v>
       </c>
       <c r="H56" s="26">
         <v>20.100000000000001</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="36">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="J56" s="32"/>
-      <c r="L56" s="38">
+      <c r="J56" s="55"/>
+      <c r="L56" s="34">
         <v>20.6</v>
       </c>
-      <c r="M56" s="39">
-        <v>78</v>
+      <c r="M56" s="35">
+        <v>88</v>
       </c>
       <c r="N56" s="26">
         <v>20.100000000000001</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O56" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P56" s="32"/>
-    </row>
-    <row r="57" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P56" s="47"/>
+    </row>
+    <row r="57" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B57" s="23">
         <v>44100</v>
       </c>
@@ -2980,36 +3109,36 @@
       <c r="D57" s="28">
         <v>83</v>
       </c>
-      <c r="F57" s="41">
+      <c r="F57" s="56">
         <v>20.100000000000001</v>
       </c>
-      <c r="G57" s="42">
-        <v>69</v>
-      </c>
-      <c r="H57" s="43">
+      <c r="G57" s="57">
+        <v>89</v>
+      </c>
+      <c r="H57" s="58">
         <v>19.2</v>
       </c>
-      <c r="I57" s="44">
+      <c r="I57" s="59">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="J57" s="33"/>
-      <c r="L57" s="41">
+      <c r="J57" s="60"/>
+      <c r="L57" s="37">
         <v>20.100000000000001</v>
       </c>
-      <c r="M57" s="42">
-        <v>69</v>
-      </c>
-      <c r="N57" s="43">
+      <c r="M57" s="57">
+        <v>89</v>
+      </c>
+      <c r="N57" s="38">
         <v>19.2</v>
       </c>
-      <c r="O57" s="44">
+      <c r="O57" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P57" s="33"/>
-    </row>
-    <row r="58" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="48"/>
+    </row>
+    <row r="58" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B58" s="4">
         <v>44831</v>
       </c>
@@ -3020,7 +3149,7 @@
         <v>19.2</v>
       </c>
       <c r="G58" s="28">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H58" s="30" t="s">
         <v>14</v>
@@ -3032,7 +3161,7 @@
         <v>19.2</v>
       </c>
       <c r="M58" s="28">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N58" s="27" t="s">
         <v>14</v>
@@ -3041,12 +3170,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E62" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B63" s="5" t="s">
         <v>10</v>
       </c>
@@ -3063,7 +3192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B64" s="23">
         <v>44087</v>
       </c>
@@ -3080,237 +3209,237 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B65" s="23">
         <v>44088</v>
       </c>
       <c r="C65" s="24">
         <v>21.3</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="40">
         <f>C64</f>
         <v>21.5</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="32">
         <v>21.3</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="43">
         <v>23</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B66" s="23">
         <v>44089</v>
       </c>
       <c r="C66" s="24">
         <v>23</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="41">
         <f t="shared" ref="E66:E78" si="5">C65</f>
         <v>21.3</v>
       </c>
       <c r="F66" s="26">
         <v>23</v>
       </c>
-      <c r="G66" s="49">
+      <c r="G66" s="44">
         <v>22.5</v>
       </c>
-      <c r="H66" s="32"/>
-    </row>
-    <row r="67" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="47"/>
+    </row>
+    <row r="67" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B67" s="23">
         <v>44090</v>
       </c>
       <c r="C67" s="24">
         <v>22.5</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="41">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="F67" s="26">
         <v>22.5</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="44">
         <v>21.3</v>
       </c>
-      <c r="H67" s="32"/>
-    </row>
-    <row r="68" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="47"/>
+    </row>
+    <row r="68" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B68" s="23">
         <v>44091</v>
       </c>
       <c r="C68" s="24">
         <v>21.3</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="41">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
       <c r="F68" s="26">
         <v>21.3</v>
       </c>
-      <c r="G68" s="49">
+      <c r="G68" s="44">
         <v>21.5</v>
       </c>
-      <c r="H68" s="32"/>
-    </row>
-    <row r="69" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="47"/>
+    </row>
+    <row r="69" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B69" s="23">
         <v>44092</v>
       </c>
       <c r="C69" s="24">
         <v>21.5</v>
       </c>
-      <c r="E69" s="46">
+      <c r="E69" s="41">
         <f t="shared" si="5"/>
         <v>21.3</v>
       </c>
       <c r="F69" s="26">
         <v>21.5</v>
       </c>
-      <c r="G69" s="49">
+      <c r="G69" s="44">
         <v>21.2</v>
       </c>
-      <c r="H69" s="32"/>
-    </row>
-    <row r="70" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H69" s="47"/>
+    </row>
+    <row r="70" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B70" s="23">
         <v>44093</v>
       </c>
       <c r="C70" s="24">
         <v>21.2</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="41">
         <f t="shared" si="5"/>
         <v>21.5</v>
       </c>
       <c r="F70" s="26">
         <v>21.2</v>
       </c>
-      <c r="G70" s="49">
+      <c r="G70" s="44">
         <v>19.7</v>
       </c>
-      <c r="H70" s="32"/>
-    </row>
-    <row r="71" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H70" s="47"/>
+    </row>
+    <row r="71" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B71" s="23">
         <v>44094</v>
       </c>
       <c r="C71" s="24">
         <v>19.7</v>
       </c>
-      <c r="E71" s="46">
+      <c r="E71" s="41">
         <f t="shared" si="5"/>
         <v>21.2</v>
       </c>
       <c r="F71" s="26">
         <v>19.7</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="44">
         <v>19.100000000000001</v>
       </c>
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="47"/>
+    </row>
+    <row r="72" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B72" s="23">
         <v>44095</v>
       </c>
       <c r="C72" s="24">
         <v>19.100000000000001</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="41">
         <f t="shared" si="5"/>
         <v>19.7</v>
       </c>
       <c r="F72" s="26">
         <v>19.100000000000001</v>
       </c>
-      <c r="G72" s="49">
+      <c r="G72" s="44">
         <v>20.2</v>
       </c>
-      <c r="H72" s="32"/>
-    </row>
-    <row r="73" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="47"/>
+    </row>
+    <row r="73" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B73" s="23">
         <v>44096</v>
       </c>
       <c r="C73" s="24">
         <v>20.2</v>
       </c>
-      <c r="E73" s="46">
+      <c r="E73" s="41">
         <f t="shared" si="5"/>
         <v>19.100000000000001</v>
       </c>
       <c r="F73" s="26">
         <v>20.2</v>
       </c>
-      <c r="G73" s="49">
+      <c r="G73" s="44">
         <v>19.2</v>
       </c>
-      <c r="H73" s="32"/>
-    </row>
-    <row r="74" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="47"/>
+    </row>
+    <row r="74" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B74" s="23">
         <v>44097</v>
       </c>
       <c r="C74" s="24">
         <v>19.2</v>
       </c>
-      <c r="E74" s="46">
+      <c r="E74" s="41">
         <f t="shared" si="5"/>
         <v>20.2</v>
       </c>
       <c r="F74" s="26">
         <v>19.2</v>
       </c>
-      <c r="G74" s="49">
+      <c r="G74" s="44">
         <v>20.6</v>
       </c>
-      <c r="H74" s="32"/>
-    </row>
-    <row r="75" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="47"/>
+    </row>
+    <row r="75" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B75" s="23">
         <v>44098</v>
       </c>
       <c r="C75" s="24">
         <v>20.6</v>
       </c>
-      <c r="E75" s="46">
+      <c r="E75" s="41">
         <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
       <c r="F75" s="26">
         <v>20.6</v>
       </c>
-      <c r="G75" s="49">
+      <c r="G75" s="44">
         <v>20.100000000000001</v>
       </c>
-      <c r="H75" s="32"/>
-    </row>
-    <row r="76" spans="2:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H75" s="47"/>
+    </row>
+    <row r="76" spans="2:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B76" s="23">
         <v>44099</v>
       </c>
       <c r="C76" s="24">
         <v>20.100000000000001</v>
       </c>
-      <c r="E76" s="47">
+      <c r="E76" s="42">
         <f t="shared" si="5"/>
         <v>20.6</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F76" s="38">
         <v>20.100000000000001</v>
       </c>
-      <c r="G76" s="50">
+      <c r="G76" s="45">
         <v>19.2</v>
       </c>
-      <c r="H76" s="33"/>
-    </row>
-    <row r="77" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="48"/>
+    </row>
+    <row r="77" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B77" s="23">
         <v>44100</v>
       </c>
@@ -3328,7 +3457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B78" s="4">
         <v>44831</v>
       </c>
